--- a/build_scripts/Memory Map.xlsx
+++ b/build_scripts/Memory Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nhatvo\wOS\build_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C4A335-6AB6-45AE-B3AA-3927B460F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2146FE2C-8EDA-47DA-B35C-5D91838B507F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1065" windowWidth="16200" windowHeight="9360" xr2:uid="{C72B857B-4371-4DB6-94E1-D0609CFAEE20}"/>
+    <workbookView xWindow="2790" yWindow="2430" windowWidth="16200" windowHeight="9360" xr2:uid="{C72B857B-4371-4DB6-94E1-D0609CFAEE20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>MEMORY MAP</t>
   </si>
@@ -182,6 +182,36 @@
   </si>
   <si>
     <t>FAT data pack</t>
+  </si>
+  <si>
+    <t>21FFF</t>
+  </si>
+  <si>
+    <t>31FFF</t>
+  </si>
+  <si>
+    <t>32FFF</t>
+  </si>
+  <si>
+    <t>3FFFF</t>
+  </si>
+  <si>
+    <t>ELF buffer</t>
+  </si>
+  <si>
+    <t>Kernel Load Buffer</t>
+  </si>
+  <si>
+    <t>VBE Info Buffer</t>
+  </si>
+  <si>
+    <t>VBE Mode Info Buffer</t>
+  </si>
+  <si>
+    <t>40F9F</t>
+  </si>
+  <si>
+    <t>Backup VRAM buffer</t>
   </si>
 </sst>
 </file>
@@ -242,10 +272,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,16 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA08031-8E34-4661-B2E6-3BE80044E235}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -855,10 +885,10 @@
         <f>IF(QUOTIENT(Sheet2!B25,1024)=0,Sheet2!B25&amp; " Bytes",Sheet2!B25/ 1024&amp;" KiB")</f>
         <v>15 Bytes</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
@@ -866,8 +896,8 @@
         <v>0xFFFF</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
@@ -987,34 +1017,168 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>"0x"&amp;Sheet2!A37</f>
-        <v>0x80000</v>
+        <v>0x12000</v>
       </c>
       <c r="B38" s="4" t="str">
         <f>IF(QUOTIENT(Sheet2!B37,1024)=0,Sheet2!B37&amp; " Bytes",Sheet2!B37/ 1024&amp;" KiB")</f>
-        <v>512 KiB</v>
+        <v>64 KiB</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>"0x"&amp;Sheet2!A38</f>
-        <v>0xFFFFF</v>
+        <v>0x21FFF</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A39</f>
+        <v>0x22000</v>
+      </c>
+      <c r="B40" s="4" t="str">
+        <f>IF(QUOTIENT(Sheet2!B39,1024)=0,Sheet2!B39&amp; " Bytes",Sheet2!B39/ 1024&amp;" KiB")</f>
+        <v>64 KiB</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A40</f>
+        <v>0x31FFF</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A41</f>
+        <v>0x32000</v>
+      </c>
+      <c r="B42" s="4" t="str">
+        <f>IF(QUOTIENT(Sheet2!B41,1024)=0,Sheet2!B41&amp; " Bytes",Sheet2!B41/ 1024&amp;" KiB")</f>
+        <v>4 KiB</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A42</f>
+        <v>0x32FFF</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A43</f>
+        <v>0x33000</v>
+      </c>
+      <c r="B44" s="4" t="str">
+        <f>IF(QUOTIENT(Sheet2!B43,1024)=0,Sheet2!B43&amp; " Bytes",Sheet2!B43/ 1024&amp;" KiB")</f>
+        <v>52 KiB</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A44</f>
+        <v>0x3FFFF</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A45</f>
+        <v>0x40000</v>
+      </c>
+      <c r="B46" s="4" t="str">
+        <f>IF(QUOTIENT(Sheet2!B45,1024)=0,Sheet2!B45&amp; " Bytes",Sheet2!B45/ 1024&amp;" KiB")</f>
+        <v>3.90625 KiB</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A46</f>
+        <v>0x40F9F</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A47</f>
+        <v>0x80000</v>
+      </c>
+      <c r="B48" s="4" t="str">
+        <f>IF(QUOTIENT(Sheet2!B47,1024)=0,Sheet2!B47&amp; " Bytes",Sheet2!B47/ 1024&amp;" KiB")</f>
+        <v>512 KiB</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f>"0x"&amp;Sheet2!A48</f>
+        <v>0xFFFFF</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:D37"/>
+  <mergeCells count="47">
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:D27"/>
@@ -1031,21 +1195,12 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1054,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607860FE-432E-4CAC-8577-66CDC131185D}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1234,7 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <f>HEX2DEC(A4)-HEX2DEC(A3)+1</f>
         <v>1024</v>
       </c>
@@ -1088,13 +1243,13 @@
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>400</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <f t="shared" ref="B5" si="0">HEX2DEC(A6)-HEX2DEC(A5)+1</f>
         <v>256</v>
       </c>
@@ -1103,13 +1258,13 @@
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>500</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <f t="shared" ref="B7" si="1">HEX2DEC(A8)-HEX2DEC(A7)+1</f>
         <v>256</v>
       </c>
@@ -1118,13 +1273,13 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>600</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <f t="shared" ref="B9" si="2">HEX2DEC(A10)-HEX2DEC(A9)+1</f>
         <v>2560</v>
       </c>
@@ -1133,13 +1288,13 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <f t="shared" ref="B11" si="3">HEX2DEC(A12)-HEX2DEC(A11)+1</f>
         <v>28928</v>
       </c>
@@ -1148,13 +1303,13 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <f t="shared" ref="B13" si="4">HEX2DEC(A14)-HEX2DEC(A13)+1</f>
         <v>256</v>
       </c>
@@ -1163,13 +1318,13 @@
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <f t="shared" ref="B15" si="5">HEX2DEC(A16)-HEX2DEC(A15)+1</f>
         <v>512</v>
       </c>
@@ -1178,13 +1333,13 @@
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <f t="shared" ref="B17" si="6">HEX2DEC(A18)-HEX2DEC(A17)+1</f>
         <v>1536</v>
       </c>
@@ -1193,13 +1348,13 @@
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>8200</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <f t="shared" ref="B19" si="7">HEX2DEC(A20)-HEX2DEC(A19)+1</f>
         <v>512</v>
       </c>
@@ -1208,13 +1363,13 @@
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>8400</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <f t="shared" ref="B21" si="8">HEX2DEC(A22)-HEX2DEC(A21)+1</f>
         <v>512</v>
       </c>
@@ -1223,13 +1378,13 @@
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <f t="shared" ref="B23:B25" si="9">HEX2DEC(A24)-HEX2DEC(A23)+1</f>
         <v>4096</v>
       </c>
@@ -1238,13 +1393,13 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
@@ -1253,14 +1408,14 @@
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10000</v>
       </c>
-      <c r="B27" s="7">
-        <f t="shared" ref="B27:B35" si="10">HEX2DEC(A28)-HEX2DEC(A27)+1</f>
+      <c r="B27" s="8">
+        <f t="shared" ref="B27:B33" si="10">HEX2DEC(A28)-HEX2DEC(A27)+1</f>
         <v>2048</v>
       </c>
     </row>
@@ -1268,13 +1423,13 @@
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>10800</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <f t="shared" si="10"/>
         <v>1024</v>
       </c>
@@ -1283,13 +1438,13 @@
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
@@ -1298,13 +1453,13 @@
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <f t="shared" si="10"/>
         <v>512</v>
       </c>
@@ -1313,14 +1468,14 @@
       <c r="A34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="7">
-        <f t="shared" si="10"/>
+      <c r="B35" s="8">
+        <f>HEX2DEC(A36)-HEX2DEC(A35)+1</f>
         <v>1280</v>
       </c>
     </row>
@@ -1328,36 +1483,101 @@
       <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>80000</v>
-      </c>
-      <c r="B37" s="7">
-        <f t="shared" ref="B37" si="11">HEX2DEC(A38)-HEX2DEC(A37)+1</f>
-        <v>524288</v>
+        <v>12000</v>
+      </c>
+      <c r="B37" s="8">
+        <f>HEX2DEC(A38)-HEX2DEC(A37)+1</f>
+        <v>65536</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>22000</v>
+      </c>
+      <c r="B39" s="8">
+        <f>HEX2DEC(A40)-HEX2DEC(A39)+1</f>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>32000</v>
+      </c>
+      <c r="B41" s="8">
+        <f>HEX2DEC(A42)-HEX2DEC(A41)+1</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="B43" s="8">
+        <f>HEX2DEC(A44)-HEX2DEC(A43)+1</f>
+        <v>53248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B45" s="8">
+        <f>HEX2DEC(A46)-HEX2DEC(A45)+1</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>80000</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" ref="B47" si="11">HEX2DEC(A48)-HEX2DEC(A47)+1</f>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B37:B38"/>
+  <mergeCells count="23">
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
@@ -1365,7 +1585,23 @@
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>